--- a/template/スプレッドシートテンプレート.xlsx
+++ b/template/スプレッドシートテンプレート.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>有効/無効</t>
   </si>
@@ -22,6 +22,9 @@
   </si>
   <si>
     <t>送信先のIncoming Webhook</t>
+  </si>
+  <si>
+    <t>送信先のDiscord Webhook</t>
   </si>
   <si>
     <t>テンプレート</t>
@@ -67,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -77,6 +80,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="0"/>
@@ -132,19 +140,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -155,7 +167,7 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -385,7 +397,8 @@
     <col customWidth="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="2" max="2" width="24.75"/>
     <col customWidth="1" min="3" max="3" width="23.25"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col customWidth="1" min="4" max="4" width="21.38"/>
+    <col customWidth="1" min="5" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -398,59 +411,71 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="b">
+      <c r="A2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="b">
+      <c r="A3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -1467,745 +1492,745 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="9">
         <v>45132.0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="E2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="11"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="11"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="11"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="11"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="13"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="11"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="11"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="13"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="13"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="13"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="11"/>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="13"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="11"/>
+      <c r="B38" s="13"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="13"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="13"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="11"/>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="13"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="11"/>
+      <c r="B44" s="13"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="11"/>
+      <c r="B46" s="13"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="13"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="11"/>
+      <c r="B49" s="13"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="11"/>
+      <c r="B50" s="13"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="11"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="11"/>
+      <c r="B53" s="13"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="11"/>
+      <c r="B54" s="13"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="11"/>
+      <c r="B55" s="13"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="11"/>
+      <c r="B56" s="13"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="11"/>
+      <c r="B57" s="13"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="11"/>
+      <c r="B58" s="13"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="11"/>
+      <c r="B59" s="13"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="11"/>
+      <c r="B61" s="13"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="11"/>
+      <c r="B62" s="13"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="11"/>
+      <c r="B63" s="13"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="11"/>
+      <c r="B65" s="13"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="11"/>
+      <c r="B66" s="13"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="13"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="11"/>
+      <c r="B69" s="13"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="11"/>
+      <c r="B70" s="13"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="13"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="11"/>
+      <c r="B72" s="13"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="11"/>
+      <c r="B73" s="13"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="11"/>
+      <c r="B74" s="13"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="13"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="11"/>
+      <c r="B76" s="13"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="11"/>
+      <c r="B78" s="13"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="11"/>
+      <c r="B79" s="13"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="11"/>
+      <c r="B80" s="13"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B81" s="13"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="11"/>
+      <c r="B82" s="13"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="11"/>
+      <c r="B83" s="13"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="11"/>
+      <c r="B84" s="13"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="11"/>
+      <c r="B85" s="13"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="11"/>
+      <c r="B86" s="13"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="11"/>
+      <c r="B87" s="13"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="11"/>
+      <c r="B88" s="13"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="11"/>
+      <c r="B89" s="13"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="11"/>
+      <c r="B90" s="13"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="11"/>
+      <c r="B91" s="13"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="11"/>
+      <c r="B92" s="13"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="13"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="11"/>
+      <c r="B94" s="13"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="11"/>
+      <c r="B95" s="13"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="11"/>
+      <c r="B96" s="13"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="13"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="11"/>
+      <c r="B98" s="13"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="11"/>
+      <c r="B99" s="13"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="11"/>
+      <c r="B100" s="13"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="11"/>
+      <c r="B101" s="13"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="11"/>
+      <c r="B102" s="13"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="11"/>
+      <c r="B103" s="13"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="11"/>
+      <c r="B104" s="13"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="13"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="11"/>
+      <c r="B106" s="13"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="11"/>
+      <c r="B107" s="13"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="11"/>
+      <c r="B108" s="13"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="11"/>
+      <c r="B109" s="13"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="11"/>
+      <c r="B110" s="13"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="11"/>
+      <c r="B111" s="13"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="11"/>
+      <c r="B112" s="13"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="11"/>
+      <c r="B113" s="13"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="11"/>
+      <c r="B114" s="13"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="11"/>
+      <c r="B115" s="13"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="11"/>
+      <c r="B116" s="13"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="11"/>
+      <c r="B117" s="13"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="11"/>
+      <c r="B118" s="13"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="11"/>
+      <c r="B119" s="13"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="11"/>
+      <c r="B120" s="13"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="11"/>
+      <c r="B121" s="13"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="11"/>
+      <c r="B122" s="13"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="11"/>
+      <c r="B123" s="13"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="11"/>
+      <c r="B124" s="13"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="11"/>
+      <c r="B125" s="13"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="11"/>
+      <c r="B126" s="13"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="13"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="11"/>
+      <c r="B128" s="13"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="11"/>
+      <c r="B129" s="13"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="11"/>
+      <c r="B130" s="13"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="11"/>
+      <c r="B131" s="13"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="11"/>
+      <c r="B132" s="13"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="11"/>
+      <c r="B133" s="13"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="11"/>
+      <c r="B134" s="13"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="11"/>
+      <c r="B135" s="13"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="11"/>
+      <c r="B136" s="13"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="11"/>
+      <c r="B137" s="13"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="11"/>
+      <c r="B138" s="13"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="11"/>
+      <c r="B139" s="13"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="11"/>
+      <c r="B140" s="13"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="11"/>
+      <c r="B141" s="13"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="11"/>
+      <c r="B142" s="13"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="11"/>
+      <c r="B143" s="13"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="11"/>
+      <c r="B144" s="13"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="11"/>
+      <c r="B145" s="13"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="11"/>
+      <c r="B146" s="13"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="11"/>
+      <c r="B147" s="13"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="11"/>
+      <c r="B148" s="13"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="11"/>
+      <c r="B149" s="13"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="11"/>
+      <c r="B150" s="13"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="11"/>
+      <c r="B151" s="13"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="11"/>
+      <c r="B152" s="13"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="11"/>
+      <c r="B153" s="13"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="11"/>
+      <c r="B154" s="13"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="11"/>
+      <c r="B155" s="13"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="11"/>
+      <c r="B156" s="13"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="11"/>
+      <c r="B157" s="13"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="11"/>
+      <c r="B158" s="13"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="11"/>
+      <c r="B159" s="13"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="11"/>
+      <c r="B160" s="13"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="11"/>
+      <c r="B161" s="13"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="11"/>
+      <c r="B162" s="13"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="11"/>
+      <c r="B163" s="13"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="11"/>
+      <c r="B164" s="13"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="11"/>
+      <c r="B165" s="13"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="11"/>
+      <c r="B166" s="13"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="11"/>
+      <c r="B167" s="13"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="11"/>
+      <c r="B168" s="13"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="11"/>
+      <c r="B169" s="13"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="11"/>
+      <c r="B170" s="13"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="11"/>
+      <c r="B171" s="13"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="11"/>
+      <c r="B172" s="13"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="11"/>
+      <c r="B173" s="13"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="11"/>
+      <c r="B174" s="13"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="11"/>
+      <c r="B175" s="13"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="11"/>
+      <c r="B176" s="13"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="11"/>
+      <c r="B177" s="13"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="11"/>
+      <c r="B178" s="13"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="11"/>
+      <c r="B179" s="13"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="11"/>
+      <c r="B180" s="13"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="11"/>
+      <c r="B181" s="13"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="11"/>
+      <c r="B182" s="13"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="11"/>
+      <c r="B183" s="13"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="11"/>
+      <c r="B184" s="13"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="11"/>
+      <c r="B185" s="13"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="11"/>
+      <c r="B186" s="13"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="11"/>
+      <c r="B187" s="13"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="11"/>
+      <c r="B188" s="13"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="11"/>
+      <c r="B189" s="13"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="11"/>
+      <c r="B190" s="13"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="11"/>
+      <c r="B191" s="13"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="11"/>
+      <c r="B192" s="13"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="11"/>
+      <c r="B193" s="13"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="11"/>
+      <c r="B194" s="13"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="11"/>
+      <c r="B195" s="13"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="11"/>
+      <c r="B196" s="13"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="11"/>
+      <c r="B197" s="13"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="11"/>
+      <c r="B198" s="13"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="11"/>
+      <c r="B199" s="13"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="11"/>
+      <c r="B200" s="13"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="11"/>
+      <c r="B201" s="13"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="11"/>
+      <c r="B202" s="13"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="11"/>
+      <c r="B203" s="13"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="11"/>
+      <c r="B204" s="13"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="11"/>
+      <c r="B205" s="13"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="11"/>
+      <c r="B206" s="13"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="11"/>
+      <c r="B207" s="13"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="11"/>
+      <c r="B208" s="13"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="11"/>
+      <c r="B209" s="13"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="11"/>
+      <c r="B210" s="13"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="11"/>
+      <c r="B211" s="13"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="11"/>
+      <c r="B212" s="13"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="11"/>
+      <c r="B213" s="13"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="11"/>
+      <c r="B214" s="13"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="11"/>
+      <c r="B215" s="13"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="11"/>
+      <c r="B216" s="13"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="11"/>
+      <c r="B217" s="13"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="11"/>
+      <c r="B218" s="13"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="11"/>
+      <c r="B219" s="13"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="11"/>
+      <c r="B220" s="13"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -3011,815 +3036,815 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="11"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="13"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="13"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="13"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="11"/>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="13"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="11"/>
+      <c r="B38" s="13"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="13"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="13"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="11"/>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="13"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="11"/>
+      <c r="B44" s="13"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="11"/>
+      <c r="B46" s="13"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="13"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="11"/>
+      <c r="B49" s="13"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="11"/>
+      <c r="B50" s="13"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="11"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="11"/>
+      <c r="B53" s="13"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="11"/>
+      <c r="B54" s="13"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="11"/>
+      <c r="B55" s="13"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="11"/>
+      <c r="B56" s="13"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="11"/>
+      <c r="B57" s="13"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="11"/>
+      <c r="B58" s="13"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="11"/>
+      <c r="B59" s="13"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="11"/>
+      <c r="B61" s="13"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="11"/>
+      <c r="B62" s="13"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="11"/>
+      <c r="B63" s="13"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="11"/>
+      <c r="B65" s="13"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="11"/>
+      <c r="B66" s="13"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="13"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="11"/>
+      <c r="B69" s="13"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="11"/>
+      <c r="B70" s="13"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="13"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="11"/>
+      <c r="B72" s="13"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="11"/>
+      <c r="B73" s="13"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="11"/>
+      <c r="B74" s="13"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="13"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="11"/>
+      <c r="B76" s="13"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="11"/>
+      <c r="B78" s="13"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="11"/>
+      <c r="B79" s="13"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="11"/>
+      <c r="B80" s="13"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B81" s="13"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="11"/>
+      <c r="B82" s="13"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="11"/>
+      <c r="B83" s="13"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="11"/>
+      <c r="B84" s="13"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="11"/>
+      <c r="B85" s="13"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="11"/>
+      <c r="B86" s="13"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="11"/>
+      <c r="B87" s="13"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="11"/>
+      <c r="B88" s="13"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="11"/>
+      <c r="B89" s="13"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="11"/>
+      <c r="B90" s="13"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="11"/>
+      <c r="B91" s="13"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="11"/>
+      <c r="B92" s="13"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="13"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="11"/>
+      <c r="B94" s="13"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="11"/>
+      <c r="B95" s="13"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="11"/>
+      <c r="B96" s="13"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="13"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="11"/>
+      <c r="B98" s="13"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="11"/>
+      <c r="B99" s="13"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="11"/>
+      <c r="B100" s="13"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="11"/>
+      <c r="B101" s="13"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="11"/>
+      <c r="B102" s="13"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="11"/>
+      <c r="B103" s="13"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="11"/>
+      <c r="B104" s="13"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="13"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="11"/>
+      <c r="B106" s="13"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="11"/>
+      <c r="B107" s="13"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="11"/>
+      <c r="B108" s="13"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="11"/>
+      <c r="B109" s="13"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="11"/>
+      <c r="B110" s="13"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="11"/>
+      <c r="B111" s="13"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="11"/>
+      <c r="B112" s="13"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="11"/>
+      <c r="B113" s="13"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="11"/>
+      <c r="B114" s="13"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="11"/>
+      <c r="B115" s="13"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="11"/>
+      <c r="B116" s="13"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="11"/>
+      <c r="B117" s="13"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="11"/>
+      <c r="B118" s="13"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="11"/>
+      <c r="B119" s="13"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="11"/>
+      <c r="B120" s="13"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="11"/>
+      <c r="B121" s="13"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="11"/>
+      <c r="B122" s="13"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="11"/>
+      <c r="B123" s="13"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="11"/>
+      <c r="B124" s="13"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="11"/>
+      <c r="B125" s="13"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="11"/>
+      <c r="B126" s="13"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="13"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="11"/>
+      <c r="B128" s="13"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="11"/>
+      <c r="B129" s="13"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="11"/>
+      <c r="B130" s="13"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="11"/>
+      <c r="B131" s="13"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="11"/>
+      <c r="B132" s="13"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="11"/>
+      <c r="B133" s="13"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="11"/>
+      <c r="B134" s="13"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="11"/>
+      <c r="B135" s="13"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="11"/>
+      <c r="B136" s="13"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="11"/>
+      <c r="B137" s="13"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="11"/>
+      <c r="B138" s="13"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="11"/>
+      <c r="B139" s="13"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="11"/>
+      <c r="B140" s="13"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="11"/>
+      <c r="B141" s="13"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="11"/>
+      <c r="B142" s="13"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="11"/>
+      <c r="B143" s="13"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="11"/>
+      <c r="B144" s="13"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="11"/>
+      <c r="B145" s="13"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="11"/>
+      <c r="B146" s="13"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="11"/>
+      <c r="B147" s="13"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="11"/>
+      <c r="B148" s="13"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="11"/>
+      <c r="B149" s="13"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="11"/>
+      <c r="B150" s="13"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="11"/>
+      <c r="B151" s="13"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="11"/>
+      <c r="B152" s="13"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="11"/>
+      <c r="B153" s="13"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="11"/>
+      <c r="B154" s="13"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="11"/>
+      <c r="B155" s="13"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="11"/>
+      <c r="B156" s="13"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="11"/>
+      <c r="B157" s="13"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="11"/>
+      <c r="B158" s="13"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="11"/>
+      <c r="B159" s="13"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="11"/>
+      <c r="B160" s="13"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="11"/>
+      <c r="B161" s="13"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="11"/>
+      <c r="B162" s="13"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="11"/>
+      <c r="B163" s="13"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="11"/>
+      <c r="B164" s="13"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="11"/>
+      <c r="B165" s="13"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="11"/>
+      <c r="B166" s="13"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="11"/>
+      <c r="B167" s="13"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="11"/>
+      <c r="B168" s="13"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="11"/>
+      <c r="B169" s="13"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="11"/>
+      <c r="B170" s="13"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="11"/>
+      <c r="B171" s="13"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="11"/>
+      <c r="B172" s="13"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="11"/>
+      <c r="B173" s="13"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="11"/>
+      <c r="B174" s="13"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="11"/>
+      <c r="B175" s="13"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="11"/>
+      <c r="B176" s="13"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="11"/>
+      <c r="B177" s="13"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="11"/>
+      <c r="B178" s="13"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="11"/>
+      <c r="B179" s="13"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="11"/>
+      <c r="B180" s="13"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="11"/>
+      <c r="B181" s="13"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="11"/>
+      <c r="B182" s="13"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="11"/>
+      <c r="B183" s="13"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="11"/>
+      <c r="B184" s="13"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="11"/>
+      <c r="B185" s="13"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="11"/>
+      <c r="B186" s="13"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="11"/>
+      <c r="B187" s="13"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="11"/>
+      <c r="B188" s="13"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="11"/>
+      <c r="B189" s="13"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="11"/>
+      <c r="B190" s="13"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="11"/>
+      <c r="B191" s="13"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="11"/>
+      <c r="B192" s="13"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="11"/>
+      <c r="B193" s="13"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="11"/>
+      <c r="B194" s="13"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="11"/>
+      <c r="B195" s="13"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="11"/>
+      <c r="B196" s="13"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="11"/>
+      <c r="B197" s="13"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="11"/>
+      <c r="B198" s="13"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="11"/>
+      <c r="B199" s="13"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="11"/>
+      <c r="B200" s="13"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="11"/>
+      <c r="B201" s="13"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="11"/>
+      <c r="B202" s="13"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="11"/>
+      <c r="B203" s="13"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="11"/>
+      <c r="B204" s="13"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="11"/>
+      <c r="B205" s="13"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="11"/>
+      <c r="B206" s="13"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="11"/>
+      <c r="B207" s="13"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="11"/>
+      <c r="B208" s="13"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="11"/>
+      <c r="B209" s="13"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="11"/>
+      <c r="B210" s="13"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="11"/>
+      <c r="B211" s="13"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="11"/>
+      <c r="B212" s="13"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="11"/>
+      <c r="B213" s="13"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="11"/>
+      <c r="B214" s="13"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="11"/>
+      <c r="B215" s="13"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="11"/>
+      <c r="B216" s="13"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="11"/>
+      <c r="B217" s="13"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="11"/>
+      <c r="B218" s="13"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="11"/>
+      <c r="B219" s="13"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="11"/>
+      <c r="B220" s="13"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/template/スプレッドシートテンプレート.xlsx
+++ b/template/スプレッドシートテンプレート.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>有効/無効</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>開始時間</t>
+  </si>
+  <si>
+    <t>開催フラグ</t>
   </si>
   <si>
     <t>書籍</t>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -158,6 +161,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1484,10 +1490,11 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="2" max="2" width="8.13"/>
-    <col customWidth="1" min="3" max="3" width="30.0"/>
-    <col customWidth="1" min="4" max="4" width="12.25"/>
-    <col customWidth="1" min="5" max="5" width="24.38"/>
-    <col customWidth="1" min="6" max="6" width="64.63"/>
+    <col customWidth="1" min="3" max="3" width="10.5"/>
+    <col customWidth="1" min="4" max="4" width="30.0"/>
+    <col customWidth="1" min="5" max="5" width="12.25"/>
+    <col customWidth="1" min="6" max="6" width="24.38"/>
+    <col customWidth="1" min="7" max="7" width="64.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1497,7 +1504,7 @@
       <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1509,728 +1516,744 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>45132.0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="13"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="13"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="13"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="13"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="13"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="13"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="13"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="13"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="13"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="13"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="13"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="13"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="13"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="13"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="13"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="13"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="13"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="13"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="13"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="13"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="13"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="13"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="13"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="13"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="13"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="13"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="13"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="13"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="13"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="13"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="13"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="13"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="13"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="13"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="13"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="13"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="13"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="13"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="13"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="13"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="13"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="13"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="13"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="13"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="13"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="13"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="13"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="13"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="13"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="13"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="13"/>
+      <c r="B69" s="14"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="13"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="13"/>
+      <c r="B71" s="14"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="13"/>
+      <c r="B72" s="14"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="13"/>
+      <c r="B73" s="14"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="13"/>
+      <c r="B74" s="14"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="13"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="13"/>
+      <c r="B76" s="14"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="13"/>
+      <c r="B77" s="14"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="13"/>
+      <c r="B78" s="14"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="13"/>
+      <c r="B79" s="14"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="13"/>
+      <c r="B80" s="14"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="13"/>
+      <c r="B81" s="14"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="13"/>
+      <c r="B82" s="14"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="13"/>
+      <c r="B83" s="14"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="13"/>
+      <c r="B84" s="14"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="13"/>
+      <c r="B85" s="14"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="13"/>
+      <c r="B86" s="14"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="13"/>
+      <c r="B87" s="14"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="13"/>
+      <c r="B88" s="14"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="13"/>
+      <c r="B89" s="14"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="13"/>
+      <c r="B90" s="14"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="13"/>
+      <c r="B91" s="14"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="13"/>
+      <c r="B92" s="14"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="13"/>
+      <c r="B93" s="14"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="13"/>
+      <c r="B94" s="14"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="13"/>
+      <c r="B95" s="14"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="13"/>
+      <c r="B96" s="14"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="13"/>
+      <c r="B97" s="14"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="13"/>
+      <c r="B98" s="14"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="13"/>
+      <c r="B99" s="14"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="13"/>
+      <c r="B100" s="14"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="13"/>
+      <c r="B101" s="14"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="13"/>
+      <c r="B102" s="14"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="13"/>
+      <c r="B103" s="14"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="13"/>
+      <c r="B104" s="14"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="13"/>
+      <c r="B105" s="14"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="13"/>
+      <c r="B106" s="14"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="13"/>
+      <c r="B107" s="14"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="13"/>
+      <c r="B108" s="14"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="13"/>
+      <c r="B109" s="14"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="13"/>
+      <c r="B110" s="14"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="13"/>
+      <c r="B111" s="14"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="13"/>
+      <c r="B112" s="14"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="13"/>
+      <c r="B113" s="14"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="13"/>
+      <c r="B114" s="14"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="13"/>
+      <c r="B115" s="14"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="13"/>
+      <c r="B116" s="14"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="13"/>
+      <c r="B117" s="14"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="13"/>
+      <c r="B118" s="14"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="13"/>
+      <c r="B119" s="14"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="13"/>
+      <c r="B120" s="14"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="13"/>
+      <c r="B121" s="14"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="13"/>
+      <c r="B122" s="14"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="13"/>
+      <c r="B123" s="14"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="13"/>
+      <c r="B124" s="14"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="13"/>
+      <c r="B125" s="14"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="13"/>
+      <c r="B126" s="14"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="13"/>
+      <c r="B127" s="14"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="13"/>
+      <c r="B128" s="14"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="13"/>
+      <c r="B129" s="14"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="13"/>
+      <c r="B130" s="14"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="13"/>
+      <c r="B131" s="14"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="13"/>
+      <c r="B132" s="14"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="13"/>
+      <c r="B133" s="14"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="13"/>
+      <c r="B134" s="14"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="13"/>
+      <c r="B135" s="14"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="13"/>
+      <c r="B136" s="14"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="13"/>
+      <c r="B137" s="14"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="13"/>
+      <c r="B138" s="14"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="13"/>
+      <c r="B139" s="14"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="13"/>
+      <c r="B140" s="14"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="13"/>
+      <c r="B141" s="14"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="13"/>
+      <c r="B142" s="14"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="13"/>
+      <c r="B143" s="14"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="13"/>
+      <c r="B144" s="14"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="13"/>
+      <c r="B145" s="14"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="13"/>
+      <c r="B146" s="14"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="13"/>
+      <c r="B147" s="14"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="13"/>
+      <c r="B148" s="14"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="13"/>
+      <c r="B149" s="14"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="13"/>
+      <c r="B150" s="14"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="13"/>
+      <c r="B151" s="14"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="13"/>
+      <c r="B152" s="14"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="13"/>
+      <c r="B153" s="14"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="13"/>
+      <c r="B154" s="14"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="13"/>
+      <c r="B155" s="14"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="13"/>
+      <c r="B156" s="14"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="13"/>
+      <c r="B157" s="14"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="13"/>
+      <c r="B158" s="14"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="13"/>
+      <c r="B159" s="14"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="13"/>
+      <c r="B160" s="14"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="13"/>
+      <c r="B161" s="14"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="13"/>
+      <c r="B162" s="14"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="13"/>
+      <c r="B163" s="14"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="13"/>
+      <c r="B164" s="14"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="13"/>
+      <c r="B165" s="14"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="13"/>
+      <c r="B166" s="14"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="13"/>
+      <c r="B167" s="14"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="13"/>
+      <c r="B168" s="14"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="13"/>
+      <c r="B169" s="14"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="13"/>
+      <c r="B170" s="14"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="13"/>
+      <c r="B171" s="14"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="13"/>
+      <c r="B172" s="14"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="13"/>
+      <c r="B173" s="14"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="13"/>
+      <c r="B174" s="14"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="13"/>
+      <c r="B175" s="14"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="13"/>
+      <c r="B176" s="14"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="13"/>
+      <c r="B177" s="14"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="13"/>
+      <c r="B178" s="14"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="13"/>
+      <c r="B179" s="14"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="13"/>
+      <c r="B180" s="14"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="13"/>
+      <c r="B181" s="14"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="13"/>
+      <c r="B182" s="14"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="13"/>
+      <c r="B183" s="14"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="13"/>
+      <c r="B184" s="14"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="13"/>
+      <c r="B185" s="14"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="13"/>
+      <c r="B186" s="14"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="13"/>
+      <c r="B187" s="14"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="13"/>
+      <c r="B188" s="14"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="13"/>
+      <c r="B189" s="14"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="13"/>
+      <c r="B190" s="14"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="13"/>
+      <c r="B191" s="14"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="13"/>
+      <c r="B192" s="14"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="13"/>
+      <c r="B193" s="14"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="13"/>
+      <c r="B194" s="14"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="13"/>
+      <c r="B195" s="14"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="13"/>
+      <c r="B196" s="14"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="13"/>
+      <c r="B197" s="14"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="13"/>
+      <c r="B198" s="14"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="13"/>
+      <c r="B199" s="14"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="13"/>
+      <c r="B200" s="14"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="13"/>
+      <c r="B201" s="14"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="13"/>
+      <c r="B202" s="14"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="13"/>
+      <c r="B203" s="14"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="13"/>
+      <c r="B204" s="14"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="13"/>
+      <c r="B205" s="14"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="13"/>
+      <c r="B206" s="14"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="13"/>
+      <c r="B207" s="14"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="13"/>
+      <c r="B208" s="14"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="13"/>
+      <c r="B209" s="14"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="13"/>
+      <c r="B210" s="14"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="13"/>
+      <c r="B211" s="14"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="13"/>
+      <c r="B212" s="14"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="13"/>
+      <c r="B213" s="14"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="13"/>
+      <c r="B214" s="14"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="13"/>
+      <c r="B215" s="14"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="13"/>
+      <c r="B216" s="14"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="13"/>
+      <c r="B217" s="14"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="13"/>
+      <c r="B218" s="14"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="13"/>
+      <c r="B219" s="14"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="13"/>
+      <c r="B220" s="14"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -3028,10 +3051,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="12.63"/>
-    <col customWidth="1" min="3" max="3" width="29.75"/>
-    <col customWidth="1" min="4" max="4" width="12.63"/>
-    <col customWidth="1" min="5" max="5" width="24.88"/>
-    <col customWidth="1" min="6" max="6" width="74.5"/>
+    <col customWidth="1" min="3" max="3" width="10.5"/>
+    <col customWidth="1" min="4" max="4" width="29.75"/>
+    <col customWidth="1" min="5" max="5" width="12.63"/>
+    <col customWidth="1" min="6" max="6" width="24.88"/>
+    <col customWidth="1" min="7" max="7" width="74.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -3041,7 +3065,7 @@
       <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3053,798 +3077,828 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="13"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="13"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="13"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="13"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="13"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="13"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="13"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="13"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="13"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="13"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="13"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="13"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="13"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="13"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="13"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="13"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="13"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="13"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="13"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="13"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="13"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="13"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="13"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="13"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="13"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="13"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="13"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="13"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="13"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="13"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="13"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="13"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="13"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="13"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="13"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="13"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="13"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="13"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="13"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="13"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="13"/>
+      <c r="B69" s="14"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="13"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="13"/>
+      <c r="B71" s="14"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="13"/>
+      <c r="B72" s="14"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="13"/>
+      <c r="B73" s="14"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="13"/>
+      <c r="B74" s="14"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="13"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="13"/>
+      <c r="B76" s="14"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="13"/>
+      <c r="B77" s="14"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="13"/>
+      <c r="B78" s="14"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="13"/>
+      <c r="B79" s="14"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="13"/>
+      <c r="B80" s="14"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="13"/>
+      <c r="B81" s="14"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="13"/>
+      <c r="B82" s="14"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="13"/>
+      <c r="B83" s="14"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="13"/>
+      <c r="B84" s="14"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="13"/>
+      <c r="B85" s="14"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="13"/>
+      <c r="B86" s="14"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="13"/>
+      <c r="B87" s="14"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="13"/>
+      <c r="B88" s="14"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="13"/>
+      <c r="B89" s="14"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="13"/>
+      <c r="B90" s="14"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="13"/>
+      <c r="B91" s="14"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="13"/>
+      <c r="B92" s="14"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="13"/>
+      <c r="B93" s="14"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="13"/>
+      <c r="B94" s="14"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="13"/>
+      <c r="B95" s="14"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="13"/>
+      <c r="B96" s="14"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="13"/>
+      <c r="B97" s="14"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="13"/>
+      <c r="B98" s="14"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="13"/>
+      <c r="B99" s="14"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="13"/>
+      <c r="B100" s="14"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="13"/>
+      <c r="B101" s="14"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="13"/>
+      <c r="B102" s="14"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="13"/>
+      <c r="B103" s="14"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="13"/>
+      <c r="B104" s="14"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="13"/>
+      <c r="B105" s="14"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="13"/>
+      <c r="B106" s="14"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="13"/>
+      <c r="B107" s="14"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="13"/>
+      <c r="B108" s="14"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="13"/>
+      <c r="B109" s="14"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="13"/>
+      <c r="B110" s="14"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="13"/>
+      <c r="B111" s="14"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="13"/>
+      <c r="B112" s="14"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="13"/>
+      <c r="B113" s="14"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="13"/>
+      <c r="B114" s="14"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="13"/>
+      <c r="B115" s="14"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="13"/>
+      <c r="B116" s="14"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="13"/>
+      <c r="B117" s="14"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="13"/>
+      <c r="B118" s="14"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="13"/>
+      <c r="B119" s="14"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="13"/>
+      <c r="B120" s="14"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="13"/>
+      <c r="B121" s="14"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="13"/>
+      <c r="B122" s="14"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="13"/>
+      <c r="B123" s="14"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="13"/>
+      <c r="B124" s="14"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="13"/>
+      <c r="B125" s="14"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="13"/>
+      <c r="B126" s="14"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="13"/>
+      <c r="B127" s="14"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="13"/>
+      <c r="B128" s="14"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="13"/>
+      <c r="B129" s="14"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="13"/>
+      <c r="B130" s="14"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="13"/>
+      <c r="B131" s="14"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="13"/>
+      <c r="B132" s="14"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="13"/>
+      <c r="B133" s="14"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="13"/>
+      <c r="B134" s="14"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="13"/>
+      <c r="B135" s="14"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="13"/>
+      <c r="B136" s="14"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="13"/>
+      <c r="B137" s="14"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="13"/>
+      <c r="B138" s="14"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="13"/>
+      <c r="B139" s="14"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="13"/>
+      <c r="B140" s="14"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="13"/>
+      <c r="B141" s="14"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="13"/>
+      <c r="B142" s="14"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="13"/>
+      <c r="B143" s="14"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="13"/>
+      <c r="B144" s="14"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="13"/>
+      <c r="B145" s="14"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="13"/>
+      <c r="B146" s="14"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="13"/>
+      <c r="B147" s="14"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="13"/>
+      <c r="B148" s="14"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="13"/>
+      <c r="B149" s="14"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="13"/>
+      <c r="B150" s="14"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="13"/>
+      <c r="B151" s="14"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="13"/>
+      <c r="B152" s="14"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="13"/>
+      <c r="B153" s="14"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="13"/>
+      <c r="B154" s="14"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="13"/>
+      <c r="B155" s="14"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="13"/>
+      <c r="B156" s="14"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="13"/>
+      <c r="B157" s="14"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="13"/>
+      <c r="B158" s="14"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="13"/>
+      <c r="B159" s="14"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="13"/>
+      <c r="B160" s="14"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="13"/>
+      <c r="B161" s="14"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="13"/>
+      <c r="B162" s="14"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="13"/>
+      <c r="B163" s="14"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="13"/>
+      <c r="B164" s="14"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="13"/>
+      <c r="B165" s="14"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="13"/>
+      <c r="B166" s="14"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="13"/>
+      <c r="B167" s="14"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="13"/>
+      <c r="B168" s="14"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="13"/>
+      <c r="B169" s="14"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="13"/>
+      <c r="B170" s="14"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="13"/>
+      <c r="B171" s="14"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="13"/>
+      <c r="B172" s="14"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="13"/>
+      <c r="B173" s="14"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="13"/>
+      <c r="B174" s="14"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="13"/>
+      <c r="B175" s="14"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="13"/>
+      <c r="B176" s="14"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="13"/>
+      <c r="B177" s="14"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="13"/>
+      <c r="B178" s="14"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="13"/>
+      <c r="B179" s="14"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="13"/>
+      <c r="B180" s="14"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="13"/>
+      <c r="B181" s="14"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="13"/>
+      <c r="B182" s="14"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="13"/>
+      <c r="B183" s="14"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="13"/>
+      <c r="B184" s="14"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="13"/>
+      <c r="B185" s="14"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="13"/>
+      <c r="B186" s="14"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="13"/>
+      <c r="B187" s="14"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="13"/>
+      <c r="B188" s="14"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="13"/>
+      <c r="B189" s="14"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="13"/>
+      <c r="B190" s="14"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="13"/>
+      <c r="B191" s="14"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="13"/>
+      <c r="B192" s="14"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="13"/>
+      <c r="B193" s="14"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="13"/>
+      <c r="B194" s="14"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="13"/>
+      <c r="B195" s="14"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="13"/>
+      <c r="B196" s="14"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="13"/>
+      <c r="B197" s="14"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="13"/>
+      <c r="B198" s="14"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="13"/>
+      <c r="B199" s="14"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="13"/>
+      <c r="B200" s="14"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="13"/>
+      <c r="B201" s="14"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="13"/>
+      <c r="B202" s="14"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="13"/>
+      <c r="B203" s="14"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="13"/>
+      <c r="B204" s="14"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="13"/>
+      <c r="B205" s="14"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="13"/>
+      <c r="B206" s="14"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="13"/>
+      <c r="B207" s="14"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="13"/>
+      <c r="B208" s="14"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="13"/>
+      <c r="B209" s="14"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="13"/>
+      <c r="B210" s="14"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="13"/>
+      <c r="B211" s="14"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="13"/>
+      <c r="B212" s="14"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="13"/>
+      <c r="B213" s="14"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="13"/>
+      <c r="B214" s="14"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="13"/>
+      <c r="B215" s="14"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="13"/>
+      <c r="B216" s="14"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="13"/>
+      <c r="B217" s="14"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="13"/>
+      <c r="B218" s="14"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="13"/>
+      <c r="B219" s="14"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="13"/>
+      <c r="B220" s="14"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
